--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -6147,7 +6147,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Compañia General de Electricidad S.A.</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4363,7 +4363,11 @@
           <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>Tercera</t>

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Levantamiento de información para el cierre del sistema de manejo de aguas del Proyecto Pascua Lama</t>
+          <t>PFV Peuco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>PFV Peuco SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>60300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/10/2021</t>
+          <t>12/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153486631&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160026692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sondajes Mineros La Fortuna</t>
+          <t>Levantamiento de información para el cierre del sistema de manejo de aguas del Proyecto Pascua Lama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NuevaUnion SpA</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>152000</v>
+        <v>2500</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>21/10/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145740733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153486631&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Sondajes Mineros La Fortuna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>NuevaUnion SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4000</v>
+        <v>152000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145740733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias corrosivas</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transfahum SPA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144896397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Transporte terrestre de sustancias corrosivas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Transfahum SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3400</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>13/11/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144896397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20000</v>
+        <v>3400</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>20000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11/12/2015</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Ampliación de Rutas para Transporte Terrestre de Residuos y Sustancias Peligrosas a Granel desde la I a la X Región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>11/12/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130832601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Transporte de Ácido Sulfúrico en y entre las Regiones XV, I, II, III, V y Metropolitana</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30300</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14/05/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130439006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/04/2015</t>
+          <t>14/05/2015</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130345628&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130439006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13/02/2015</t>
+          <t>24/04/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130225012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130345628&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Aumento de Capacidad de Transporte de Ácido Sulfúrico en y entre las Regiones XV, I, II, III, V y Metropolitana</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5000</v>
+        <v>30300</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/02/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130225012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Transporte de Ácido Sulfúrico en y entre las Regiones XV, I, II, III, V y Metropolitana</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>30300</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>26/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129964317&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Aumento de Capacidad de Transporte de Ácido Sulfúrico en y entre las Regiones XV, I, II, III, V y Metropolitana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>30300</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/11/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129964317&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129947856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Transporte Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6750</v>
+        <v>219</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129947856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DIA transportes residuos peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129882548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>DIA transportes residuos peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>17000</v>
+        <v>219</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>20/10/2014</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129882548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PLANTA FOTOVOLTAICA ALTO DEL CARMEN 60 MW</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S.W. Consulting S.A.</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>PLANTA FOTOVOLTAICA ALTO DEL CARMEN 60 MW</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>S.W. Consulting S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>10/03/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,11 +1927,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>219</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE ÓXIDO DE CALCIO REGIONES II, III Y IV</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>PIETRO DEPETRIS E HIJOS Y CÍA. LTDA.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3708</v>
+        <v>219</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO EN LAS REGIONES I,II y III</t>
+          <t>TRANSPORTE ÓXIDO DE CALCIO REGIONES II, III Y IV</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Empresarios del Transporte "Agretrans El Loa"</t>
+          <t>PIETRO DEPETRIS E HIJOS Y CÍA. LTDA.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2400</v>
+        <v>3708</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/12/2013</t>
+          <t>13/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128858156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128914675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO EN LAS REGIONES I,II y III</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Asociación Gremial de Empresarios del Transporte "Agretrans El Loa"</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2013</t>
+          <t>02/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128858156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/11/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128831391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ÁCIDO SULFÚRICO EN LAS REGIONES XV - I - II y III</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Empresarios del Transporte "Agretrans El Loa"</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2400</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128663117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE ÁCIDO SULFÚRICO EN LAS REGIONES XV - I - II y III</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Asociación Gremial de Empresarios del Transporte "Agretrans El Loa"</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>219</v>
+        <v>2400</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>11/10/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128663117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Incremento en la Capacidad de Transporte Terrestre de Ácido Sulfúrico entre las XV, I, II y III Regiones de Chile, Empresa de Transportes y Servicios DEYFE SPA</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>12500</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/08/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128478881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Incremento en la Capacidad de Transporte Terrestre de Ácido Sulfúrico entre las XV, I, II y III Regiones de Chile, Empresa de Transportes y Servicios DEYFE SPA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>26/08/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128478881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>212</v>
+        <v>2475</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2475</v>
+        <v>212</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>210</v>
+        <v>2475</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>210</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TREXVAL S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2450</v>
+        <v>1500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Transportes de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>TREXVAL S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5250</v>
+        <v>2450</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05/09/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7643116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aumento de Capacidad de Transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
+          <t>Aumento de capacidad de transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/08/2012</t>
+          <t>05/09/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7230277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7304823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Aumento de Capacidad de Transporte terrestre de Ácido Sulfúrico en y entre las regiones XV, I, II y III</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>15000</v>
+        <v>5250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>16/08/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7230277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>12000</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>12000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>75000</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3563,21 +3563,21 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sistema de Transporte de Caliza y Cal</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/05/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4593837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Sistema de Transporte de Caliza y Cal</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4050</v>
+        <v>11000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>18/05/2010</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4593837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>350</v>
+        <v>4050</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>91</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SISTEMA ALTERNATIVO DE TRATAMIENTO Y DISPOSICIÓN DE AGUA DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL ALTO DEL CARMEN, CAPEL LTDA. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>SISTEMA ALTERNATIVO DE TRATAMIENTO Y DISPOSICIÓN DE AGUA DE LAVADO Y MANEJO DE ORUJO Y ESCOBAJO EN PLANTA AGROINDUSTRIAL ALTO DEL CARMEN, CAPEL LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>36</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,40 +4360,40 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2.5</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,30 +4408,30 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mina de Caliza Potrerillo (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330923&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Mina de Caliza Potrerillo (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1750</v>
+        <v>200000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>13/11/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3330923&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Plan de Desarrollo Comunidad Agrícola Diaguita Los Huascoaltinos (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Comunidad Agrícola Los Huascoaltinos</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>12/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3162402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Plan de Desarrollo Comunidad Agrícola Diaguita Los Huascoaltinos (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Comunidad Agrícola Los Huascoaltinos</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>12/09/2008</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3162402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3408</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICIÓN DE AGUAS DE LAVADO DE PLANTA ALTO DEL CARMEN, CAPEL LTDA. (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716664&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE AGUAS DE LAVADO DE PLANTA ALTO DEL CARMEN, CAPEL LTDA. (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICIÓN DE AGUAS DE LAVADO DE PLANTA ALTO DEL CARMEN, CAPEL LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>01/02/2008</t>
+          <t>15/02/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2684435&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2716664&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE AGUAS DE LAVADO DE PLANTA ALTO DEL CARMEN, CAPEL LTDA. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cooperativa Agrícola Pisquera Elquí Limitada ó Capel Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>429</v>
+        <v>55</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>01/02/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2684435&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento Línea de Transmisión Punta Colorada-Tres Quebradas (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>100000</v>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14/06/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2202242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Ampliación y Mejoramiento Línea de Transmisión Punta Colorada-Tres Quebradas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>14/06/2007</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2202242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoramiento línea de transmisión adicional Punta Colorada-Tres Quebradas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>02/08/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1606245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AMPLIACION Y MEJORAMIENTO LINEA DE TRANSMISION ADICIONAL PUNTA COLORADA- TRES QUEBRADAS (e-seia)</t>
+          <t>Ampliación y Mejoramiento línea de transmisión adicional Punta Colorada-Tres Quebradas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/07/2006</t>
+          <t>02/08/2006</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596551&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1606245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>AMPLIACION Y MEJORAMIENTO LINEA DE TRANSMISION ADICIONAL PUNTA COLORADA- TRES QUEBRADAS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>138</v>
+        <v>100000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>27/07/2006</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596551&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Túnel de Exploración El Morro (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5762,20 +5762,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Falconbridge Chile Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150125&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Proyecto Túnel de Exploración El Morro (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,20 +5810,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Falconbridge Chile Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>160</v>
+        <v>4600</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150125&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,30 +5992,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Modificaciones Proyecto Pascua Lama</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>500000</v>
+        <v>200</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>06/12/2004</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048260&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,12 +6040,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>Modificaciones Proyecto Pascua Lama</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>06/12/2004</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1048260&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2119</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Línea 66 kv Valle - Vallenar</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>CGE Transmisión S.A.</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>679</v>
+        <v>2119</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Servivio de Agua Potable Rural de la Marquesa Comuna de Alto del Carmen</t>
+          <t>Línea 66 kv Valle - Vallenar</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>CGE Transmisión S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>50</v>
+        <v>679</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>28/12/2001</t>
+          <t>05/02/2003</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Servicio de Agua Potable Rural San Félix Comuna de Alto del Carmen</t>
+          <t>Servivio de Agua Potable Rural de la Marquesa Comuna de Alto del Carmen</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sistema de Servicio de Agua Potable Rural de La Arena Comuna de Alto del Carmen</t>
+          <t>Servicio de Agua Potable Rural San Félix Comuna de Alto del Carmen</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Prospección El Morro</t>
+          <t>Sistema de Servicio de Agua Potable Rural de La Arena Comuna de Alto del Carmen</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Noranda Chile Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>10000</v>
+        <v>60</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>28/12/2001</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,12 +6376,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pascua Lama</t>
+          <t>Prospección El Morro</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Compañia Minera Nevada SpA</t>
+          <t>Noranda Chile Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>950000</v>
+        <v>10000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>03/08/2000</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3053&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4480&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mejoramiento Escuela E-51 El Tránsito</t>
+          <t>Pascua Lama</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Alto del Carmen</t>
+          <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>30</v>
+        <v>950000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07/07/1997</t>
+          <t>03/08/2000</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3053&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ampliacion Escuela G-52 Alto del Carmen</t>
+          <t>Mejoramiento Escuela E-51 El Tránsito</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Contrucción Aula y Alero Escuela G-47 Chollay</t>
+          <t>Ampliacion Escuela G-52 Alto del Carmen</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,7 +6539,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Reparaciones Mayores Escuelas de la Comuna</t>
+          <t>Contrucción Aula y Alero Escuela G-47 Chollay</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=943&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,43 +6616,91 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>Reparaciones Mayores Escuelas de la Comuna</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Alto del Carmen</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>30</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>07/07/1997</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=943&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Alto del Carmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
           <t>Caminos de Acceso y Líneas de Alta Tensión a los Proyectos Nevada y El Indio</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>Compañia Minera Nevada SpA</t>
         </is>
       </c>
-      <c r="F131" t="n">
+      <c r="F132" t="n">
         <v>46000</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>19/03/1996</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=48&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>Alto del Carmen</t>
         </is>

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/09/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Alto del Carmen.xlsx
+++ b/data/Alto del Carmen.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
